--- a/Requisitos.xlsx
+++ b/Requisitos.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\Documents\BandTec\Mariana\giif\Projeto-PI\Projeto-PI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F6CB47-A4EE-4A1C-AE87-41A522385906}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="acompanhamento">#REF!</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="72">
   <si>
     <t>ID</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Funcionalidade</t>
   </si>
   <si>
-    <t>RF1</t>
-  </si>
-  <si>
     <t>Essencial</t>
   </si>
   <si>
@@ -202,12 +199,66 @@
   </si>
   <si>
     <t>Não Funcional</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>requisito</t>
+  </si>
+  <si>
+    <t>funcionalidade</t>
+  </si>
+  <si>
+    <t>O software deve possibilitar o casdastro de novos usuários.</t>
+  </si>
+  <si>
+    <t>O software deve possibilitar o login de usuários já cadastrados.</t>
+  </si>
+  <si>
+    <t>O software deve possibilitar a consulta de dados de usuários já cadastrados</t>
+  </si>
+  <si>
+    <t>O software deve permitir que o administrador efetue a manutenção(consulta, inclusão, alteração e exclusão) de pessoas jurídicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O software deve realizar a validação de dados cadastrados </t>
+  </si>
+  <si>
+    <t>O software deve permitir a recuperação de e-mail e senha dos usuários</t>
+  </si>
+  <si>
+    <t>O software deve identificar a passagem de pessoas pelo sensor.</t>
+  </si>
+  <si>
+    <t>Não funcional</t>
+  </si>
+  <si>
+    <t>O software deve permitir a alteração de senha dos usuários.</t>
+  </si>
+  <si>
+    <t>O software deve permitir exportação dos relatórios .</t>
+  </si>
+  <si>
+    <t>O software deve gerar relatórios a partir dos dados do dashboard.</t>
+  </si>
+  <si>
+    <t>O software deve gerar um dashboard a partir dos dados obtidos pelos sensores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O software deve permitir a consulta dos dados gerados pelos sensores.  </t>
+  </si>
+  <si>
+    <t>O software deve possibilitar um meio de suporte técnico ao usuário telefone e email.</t>
+  </si>
+  <si>
+    <t>classificação</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -228,7 +279,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,6 +290,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFADB9CA"/>
         <bgColor rgb="FFADB9CA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -270,13 +327,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{9F7907FF-57EA-4559-B058-E0D6662FF25D}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -488,22 +551,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C05F5E-68CC-4FDD-AB74-9E569E15FDA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="86.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,326 +580,570 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="109.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
